--- a/★★★行程★★★/一日游/预订情况-5月.xlsx
+++ b/★★★行程★★★/一日游/预订情况-5月.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$3:$J$29</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>已发送</t>
   </si>
@@ -35,41 +38,108 @@
     <t>已确认</t>
   </si>
   <si>
+    <t>未确认</t>
+  </si>
+  <si>
+    <t>未发送</t>
+  </si>
+  <si>
+    <t>Ref - RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>款项是否已收</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>姓名 - 归属</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人数情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>邮件发送情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>确认与否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>萤火虫</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>霍比特人村</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>司机</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>未确认</t>
-  </si>
-  <si>
-    <t>未发送</t>
-  </si>
-  <si>
-    <t>He JuanTing - RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 adults</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2 adults</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20170319213921632</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>M20170419150356553</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20170421211204198</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFW20170425123214756</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brad</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang shuyi- RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhu yuliang- RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>He JunTing- RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu YinYan- RRUU</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小舟</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -152,40 +222,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,137 +541,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="22.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.6328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.453125" customWidth="1"/>
     <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="12" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1">
+      <c r="A4" s="4">
+        <v>42859</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>949358</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1036397</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="10" customFormat="1">
-      <c r="A4" s="7">
-        <v>42856</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+    </row>
+    <row r="5" spans="1:10" s="7" customFormat="1">
+      <c r="A5" s="4">
+        <v>42860</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>949361</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1036398</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1">
+      <c r="A6" s="4">
+        <v>42861</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>949365</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1036399</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1">
+      <c r="A7" s="4">
+        <v>42861</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>949374</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1036414</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" s="7" customFormat="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" s="7" customFormat="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" s="7" customFormat="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" s="7" customFormat="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" s="7" customFormat="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" s="7" customFormat="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" s="7" customFormat="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" s="7" customFormat="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" s="7" customFormat="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" s="7" customFormat="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" s="7" customFormat="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" s="7" customFormat="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" s="7" customFormat="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" s="7" customFormat="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" s="7" customFormat="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" s="7" customFormat="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" s="7" customFormat="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" s="7" customFormat="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="J3:J29"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5">
-      <formula1>$K$4:$K$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E8 E4">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E30">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D30">
       <formula1>$B$1:$B$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J30">
+      <formula1>$D$1:$D$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/★★★行程★★★/一日游/预订情况-5月.xlsx
+++ b/★★★行程★★★/一日游/预订情况-5月.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$3:$J$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$3:$J$36</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>已发送</t>
   </si>
@@ -45,102 +45,251 @@
   </si>
   <si>
     <t>Ref - RRUU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>款项是否已收</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>姓名 - 归属</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人数情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮件发送情况</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确认与否</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>萤火虫</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>霍比特人村</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>司机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4 adults</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2 adults</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFW20170425123214756</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang shuyi- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhu yuliang- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He JunTing- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小舟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>2 adults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang yuhua- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LU XIAOMEI- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFW20170430112633733</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zou yu- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20170421211204198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vincent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TM20170319213921632</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M20170419150356553</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM20170421211204198</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MFW20170425123214756</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brad</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huang shuyi- RRUU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhu yuliang- RRUU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>He JunTing- RRUU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Liu YinYan- RRUU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小舟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiang Xiao - TaoBao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang haimin- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20170426181604841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFW20170429092616213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 adults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He JunJie- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M20170506114405917</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20170424105102388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu Zhou- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFW20170429154647377</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M20170515094105238</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang Jiao- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Song xintong- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cao le- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFW20170514083359345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFW20170501222327247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen tingting- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vincent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20170515160608739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Zeng Yi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TaoBao</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -159,14 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="DengXian"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -182,10 +330,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,42 +373,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,34 +685,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="22.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -576,460 +721,780 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" s="10" customFormat="1">
+      <c r="A4" s="7">
         <v>42859</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>949358</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>1036397</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1">
-      <c r="A5" s="4">
-        <v>42860</v>
+        <v>32</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1">
+      <c r="A5" s="7">
+        <v>42859</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="10">
-        <v>949361</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1036398</v>
+      <c r="F5" s="9">
+        <v>955079</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1042925</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1">
-      <c r="A6" s="4">
-        <v>42861</v>
+        <v>30</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1">
+      <c r="A6" s="7">
+        <v>42860</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
-        <v>949365</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1036399</v>
+      <c r="F6" s="9">
+        <v>949361</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1036398</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1">
-      <c r="A7" s="4">
+      <c r="J6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1">
+      <c r="A7" s="7">
         <v>42861</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
+        <v>949365</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1036399</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1">
+      <c r="A8" s="7">
+        <v>42861</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
         <v>949374</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="9">
         <v>1036414</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="I8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1">
+      <c r="A9" s="7">
+        <v>42862</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>955086</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1042963</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1">
+      <c r="A10" s="7">
+        <v>42862</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>959379</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1046636</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1">
+      <c r="A11" s="7">
+        <v>42863</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>955088</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1042966</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1">
+      <c r="A12" s="7">
+        <v>42863</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>955089</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1042972</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1">
+      <c r="A13" s="7">
+        <v>42863</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>959002</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1045844</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1">
+      <c r="A14" s="7">
+        <v>42870</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>961939</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1049128</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1">
+      <c r="A15" s="7">
+        <v>42871</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>967126</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1053900</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" s="7" customFormat="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" s="7" customFormat="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" s="7" customFormat="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" s="7" customFormat="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" s="7" customFormat="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" s="7" customFormat="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" s="7" customFormat="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" s="7" customFormat="1">
-      <c r="A20" s="4"/>
+    <row r="16" spans="1:10" s="10" customFormat="1">
+      <c r="A16" s="7">
+        <v>42875</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
+        <v>969523</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1055409</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1">
+      <c r="A17" s="7">
+        <v>42878</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
+        <v>969525</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1055411</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1">
+      <c r="A18" s="7">
+        <v>42883</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1">
+      <c r="A19" s="7">
+        <v>42884</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>969537</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1055413</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1">
+      <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" s="7" customFormat="1">
-      <c r="A21" s="4"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1">
+      <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" s="7" customFormat="1">
-      <c r="A22" s="4"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1">
+      <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" s="7" customFormat="1">
-      <c r="A23" s="4"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1">
+      <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" s="7" customFormat="1">
-      <c r="A24" s="4"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1">
+      <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" s="7" customFormat="1">
-      <c r="A25" s="4"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" s="10" customFormat="1">
+      <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" s="7" customFormat="1">
-      <c r="A26" s="4"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" s="10" customFormat="1">
+      <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" s="7" customFormat="1">
-      <c r="A27" s="4"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" s="10" customFormat="1">
+      <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" s="7" customFormat="1">
-      <c r="A28" s="4"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1">
+      <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" s="7" customFormat="1">
-      <c r="A29" s="4"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1">
+      <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" s="7" customFormat="1">
-      <c r="A30" s="4"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" s="10" customFormat="1">
+      <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" s="10" customFormat="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" s="10" customFormat="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" s="10" customFormat="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" s="10" customFormat="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" s="10" customFormat="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" s="10" customFormat="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" s="10" customFormat="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="J3:J29"/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E30">
+  <autoFilter ref="J3:J36"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E37">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D37">
       <formula1>$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J37">
       <formula1>$D$1:$D$2</formula1>
     </dataValidation>
   </dataValidations>

--- a/★★★行程★★★/一日游/预订情况-5月.xlsx
+++ b/★★★行程★★★/一日游/预订情况-5月.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$3:$J$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$J$3:$J$37</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
   <si>
     <t>已发送</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,10 +256,6 @@
   </si>
   <si>
     <t>Vincent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TM20170515160608739</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,6 +282,21 @@
       </rPr>
       <t>TaoBao</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>MFW20170524102720161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xu junheng- RRUU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TM20170515160608739</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -725,33 +733,33 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>4</v>
@@ -765,10 +773,10 @@
         <v>42859</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>0</v>
@@ -783,13 +791,13 @@
         <v>1036397</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1">
@@ -797,10 +805,10 @@
         <v>42859</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>0</v>
@@ -815,13 +823,13 @@
         <v>1042925</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1">
@@ -829,10 +837,10 @@
         <v>42860</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>0</v>
@@ -847,13 +855,13 @@
         <v>1036398</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1">
@@ -861,10 +869,10 @@
         <v>42861</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>0</v>
@@ -879,13 +887,13 @@
         <v>1036399</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1">
@@ -893,10 +901,10 @@
         <v>42861</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>0</v>
@@ -911,13 +919,13 @@
         <v>1036414</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1">
@@ -925,10 +933,10 @@
         <v>42862</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>0</v>
@@ -943,13 +951,13 @@
         <v>1042963</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1">
@@ -957,10 +965,10 @@
         <v>42862</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>0</v>
@@ -975,13 +983,13 @@
         <v>1046636</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="J10" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="10" customFormat="1">
@@ -989,10 +997,10 @@
         <v>42863</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>0</v>
@@ -1007,13 +1015,13 @@
         <v>1042966</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="10" customFormat="1">
@@ -1021,10 +1029,10 @@
         <v>42863</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>0</v>
@@ -1039,13 +1047,13 @@
         <v>1042972</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="10" customFormat="1">
@@ -1053,10 +1061,10 @@
         <v>42863</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>0</v>
@@ -1071,13 +1079,13 @@
         <v>1045844</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="J13" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="10" customFormat="1">
@@ -1085,10 +1093,10 @@
         <v>42870</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>0</v>
@@ -1103,13 +1111,13 @@
         <v>1049128</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="10" customFormat="1">
@@ -1117,10 +1125,10 @@
         <v>42871</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>0</v>
@@ -1135,13 +1143,13 @@
         <v>1053900</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1">
@@ -1149,10 +1157,10 @@
         <v>42875</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>0</v>
@@ -1167,13 +1175,13 @@
         <v>1055409</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="10" customFormat="1">
@@ -1181,10 +1189,10 @@
         <v>42878</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>0</v>
@@ -1199,86 +1207,110 @@
         <v>1055411</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="10" customFormat="1">
       <c r="A18" s="7">
-        <v>42883</v>
+        <v>42880</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
+        <v>975846</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1060707</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="J18" s="8" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="10" customFormat="1">
       <c r="A19" s="7">
+        <v>42883</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>973821</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1058780</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1">
+      <c r="A20" s="7">
         <v>42884</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="B20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
         <v>969537</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>1055413</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="10" customFormat="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="8"/>
+      <c r="H20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:10" s="10" customFormat="1">
       <c r="A21" s="7"/>
@@ -1289,7 +1321,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" s="10" customFormat="1">
@@ -1484,17 +1516,29 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
+    <row r="38" spans="1:10" s="10" customFormat="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
   </sheetData>
-  <autoFilter ref="J3:J36"/>
+  <autoFilter ref="J3:J37"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E38">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D38">
       <formula1>$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J38">
       <formula1>$D$1:$D$2</formula1>
     </dataValidation>
   </dataValidations>
